--- a/整合結果/自由時報_財經/excel_by_week/1_W48.xlsx
+++ b/整合結果/自由時報_財經/excel_by_week/1_W48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,23 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0001-11-30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>蛇年房市回溫無望 北台待售新案達1271案 3年半新高</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5050992</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
